--- a/public/products.xlsx
+++ b/public/products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamada assi\OneDrive\سطح المكتب\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D789845E-2D26-43EE-86D3-EAC582B9A2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECA6B7D-2AC9-4035-9EC7-E64F4DCE49DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9690" yWindow="2820" windowWidth="10740" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="10740" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>product A</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>barcode</t>
+  </si>
+  <si>
+    <t>test 0</t>
+  </si>
+  <si>
+    <t>test 1</t>
   </si>
 </sst>
 </file>
@@ -357,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,7 +387,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>123456</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -392,13 +398,35 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>789012</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
         <v>15.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>18.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>40.1</v>
       </c>
     </row>
   </sheetData>
